--- a/Config/app/static/resources/departamentos.xlsx
+++ b/Config/app/static/resources/departamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Documents\GitHub\Adso\Config\app\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E57E1-62A9-4C67-9314-52F52B4266CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCEB5AA-5C77-4CB2-BF98-5E6F18FE7E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A732570-D614-4A99-AEF9-3C579D96B5D8}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config/app/static/resources/departamentos.xlsx
+++ b/Config/app/static/resources/departamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Documents\GitHub\Adso\Config\app\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCEB5AA-5C77-4CB2-BF98-5E6F18FE7E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524304B-2F60-46F0-A0EF-BC769649671B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A732570-D614-4A99-AEF9-3C579D96B5D8}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Antioquia </t>
   </si>
@@ -125,12 +125,6 @@
   </si>
   <si>
     <t>codigo_departamento</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
   </si>
   <si>
     <t>id</t>
@@ -620,9 +614,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,54 +977,54 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
+      <c r="B2" s="2">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
+      <c r="B3" s="2">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -1036,10 +1032,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1047,10 +1043,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -1058,10 +1054,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -1069,10 +1065,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -1080,10 +1076,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1091,10 +1087,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>20</v>
       </c>
       <c r="C10" t="s">
@@ -1102,10 +1098,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -1113,10 +1109,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -1124,10 +1120,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -1135,10 +1131,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>41</v>
       </c>
       <c r="C14" t="s">
@@ -1146,10 +1142,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>44</v>
       </c>
       <c r="C15" t="s">
@@ -1157,10 +1153,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>47</v>
       </c>
       <c r="C16" t="s">
@@ -1168,10 +1164,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>50</v>
       </c>
       <c r="C17" t="s">
@@ -1179,10 +1175,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>52</v>
       </c>
       <c r="C18" t="s">
@@ -1190,10 +1186,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1201,10 +1197,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>63</v>
       </c>
       <c r="C20" t="s">
@@ -1212,10 +1208,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>66</v>
       </c>
       <c r="C21" t="s">
@@ -1223,10 +1219,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>68</v>
       </c>
       <c r="C22" t="s">
@@ -1234,10 +1230,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>70</v>
       </c>
       <c r="C23" t="s">
@@ -1245,10 +1241,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>73</v>
       </c>
       <c r="C24" t="s">
@@ -1256,10 +1252,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>76</v>
       </c>
       <c r="C25" t="s">
@@ -1267,10 +1263,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>81</v>
       </c>
       <c r="C26" t="s">
@@ -1278,10 +1274,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>85</v>
       </c>
       <c r="C27" t="s">
@@ -1289,10 +1285,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>86</v>
       </c>
       <c r="C28" t="s">
@@ -1300,10 +1296,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>88</v>
       </c>
       <c r="C29" t="s">
@@ -1311,10 +1307,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>91</v>
       </c>
       <c r="C30" t="s">
@@ -1322,10 +1318,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>94</v>
       </c>
       <c r="C31" t="s">
@@ -1333,10 +1329,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>95</v>
       </c>
       <c r="C32" t="s">
@@ -1344,10 +1340,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>97</v>
       </c>
       <c r="C33" t="s">
@@ -1355,10 +1351,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>99</v>
       </c>
       <c r="C34" t="s">

--- a/Config/app/static/resources/departamentos.xlsx
+++ b/Config/app/static/resources/departamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Documents\GitHub\Adso\Config\app\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524304B-2F60-46F0-A0EF-BC769649671B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CAF29B-2DE6-42BE-9697-EBEC1D975029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A732570-D614-4A99-AEF9-3C579D96B5D8}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="departamentos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">departamentos!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">departamentos!$A$1:$B$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Antioquia </t>
   </si>
@@ -31,9 +44,6 @@
     <t xml:space="preserve">Atlántico </t>
   </si>
   <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
     <t>Bolívar</t>
   </si>
   <si>
@@ -122,9 +132,6 @@
   </si>
   <si>
     <t>Vichada</t>
-  </si>
-  <si>
-    <t>codigo_departamento</t>
   </si>
   <si>
     <t>id</t>
@@ -614,11 +621,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,395 +984,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B523829C-E887-4276-A3CF-8C2B4777EC3C}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34" xr:uid="{B523829C-E887-4276-A3CF-8C2B4777EC3C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>